--- a/CyclingPowerMeter_2023/RegisterSetting.xlsx
+++ b/CyclingPowerMeter_2023/RegisterSetting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\LagopusSystem\CyclingPowerMeter_2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4908E2D-A119-4F2C-8A3B-054ABA1D426F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68FDBC8-05A0-4DCF-AD82-895B01A3F12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{E009C029-DF8B-4891-8029-E0242CA2AF4B}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -274,7 +265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,12 +282,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -637,7 +622,7 @@
   <dimension ref="A2:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -686,28 +671,28 @@
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="13">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
@@ -719,43 +704,43 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5"/>
-      <c r="C5" s="6">
-        <f>C4*(2^C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <f>D4*(2^D$3)</f>
+      <c r="C5">
+        <f t="shared" ref="C5:J5" si="0">C4*(2^C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="E5" s="6">
-        <f>E4*(2^E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <f>F4*(2^F$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <f>G4*(2^G$3)</f>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H5" s="6">
-        <f>H4*(2^H$3)</f>
+      <c r="H5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I5" s="6">
-        <f>I4*(2^I$3)</f>
+      <c r="I5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J5" s="1">
-        <f>J4*(2^J$3)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
         <f>SUM(C5:J5)</f>
         <v>78</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="L5" t="str">
         <f>DEC2HEX(K5)</f>
         <v>4E</v>
       </c>
@@ -764,25 +749,25 @@
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" s="1">
@@ -800,43 +785,43 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="5"/>
-      <c r="C7" s="6">
-        <f>C6*(2^C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <f>D6*(2^D$3)</f>
+      <c r="C7">
+        <f t="shared" ref="C7:J7" si="1">C6*(2^C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="E7" s="6">
-        <f>E6*(2^E$3)</f>
+      <c r="E7">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="F7" s="6">
-        <f>F6*(2^F$3)</f>
+      <c r="F7">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G7" s="6">
-        <f>G6*(2^G$3)</f>
+      <c r="G7">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H7" s="6">
-        <f>H6*(2^H$3)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <f>I6*(2^I$3)</f>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <f>J6*(2^J$3)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
         <f>SUM(C7:J7)</f>
         <v>120</v>
       </c>
-      <c r="L7" s="7" t="str">
+      <c r="L7" t="str">
         <f>DEC2HEX(K7)</f>
         <v>78</v>
       </c>
@@ -845,25 +830,25 @@
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" s="1">
@@ -872,43 +857,43 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="5"/>
-      <c r="C9" s="6">
-        <f>C8*(2^C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <f>D8*(2^D$3)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <f>E8*(2^E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <f>F8*(2^F$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <f>G8*(2^G$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <f>H8*(2^H$3)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <f>I8*(2^I$3)</f>
+      <c r="C9">
+        <f t="shared" ref="C9:J9" si="2">C8*(2^C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <f>J8*(2^J$3)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
         <f>SUM(C9:J9)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="7" t="str">
+      <c r="L9" t="str">
         <f>DEC2HEX(K9)</f>
         <v>0</v>
       </c>
@@ -917,25 +902,25 @@
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" s="1">
@@ -944,116 +929,116 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="5"/>
-      <c r="C11" s="6">
-        <f>C10*(2^C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <f>D10*(2^D$3)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <f>E10*(2^E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <f>F10*(2^F$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <f>G10*(2^G$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <f>H10*(2^H$3)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <f>I10*(2^I$3)</f>
+      <c r="C11">
+        <f t="shared" ref="C11:J11" si="3">C10*(2^C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <f>J10*(2^J$3)</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
         <f>SUM(C11:J11)</f>
         <v>1</v>
       </c>
-      <c r="L11" s="7" t="str">
+      <c r="L11" t="str">
         <f>DEC2HEX(K11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11">
-        <f>C12*(2^C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <f>D12*(2^D$3)</f>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9">
+        <f t="shared" ref="C13:J13" si="4">C12*(2^C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="E13" s="11">
-        <f>E12*(2^E$3)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <f>F12*(2^F$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <f>G12*(2^G$3)</f>
+      <c r="E13" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H13" s="11">
-        <f>H12*(2^H$3)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <f>I12*(2^I$3)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <f>J12*(2^J$3)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="H13" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
         <f>SUM(C13:J13)</f>
         <v>72</v>
       </c>
-      <c r="L13" s="7" t="str">
+      <c r="L13" t="str">
         <f>DEC2HEX(K13)</f>
         <v>48</v>
       </c>
